--- a/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCACD8-BBC2-4922-9323-9C943BC0E942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -219,11 +218,20 @@
   <si>
     <t>PERMANENT</t>
   </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/12,13/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -864,7 +872,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -910,25 +917,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1235,34 +1242,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1290,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1310,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1321,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1323,7 +1332,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1331,7 +1340,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1344,7 +1353,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1361,7 +1370,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1405,7 +1414,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.25</v>
+        <v>56.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1415,12 +1424,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.25</v>
+        <v>56.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1442,7 +1451,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1458,7 +1467,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1478,7 +1487,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1498,7 +1507,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1518,7 +1527,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1538,7 +1547,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1558,7 +1567,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1578,7 +1587,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1598,7 +1607,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1618,7 +1627,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1638,7 +1647,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1658,7 +1667,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1682,7 +1691,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -1700,7 +1709,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1720,7 +1729,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1740,7 +1749,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1760,7 +1769,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1780,7 +1789,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1820,7 +1829,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43678</v>
       </c>
@@ -1840,7 +1849,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43709</v>
       </c>
@@ -1860,7 +1869,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43739</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43770</v>
       </c>
@@ -1900,7 +1909,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43800</v>
       </c>
@@ -1924,7 +1933,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1951,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43831</v>
       </c>
@@ -1962,7 +1971,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43862</v>
       </c>
@@ -1982,7 +1991,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -2002,7 +2011,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43922</v>
       </c>
@@ -2022,7 +2031,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43952</v>
       </c>
@@ -2042,7 +2051,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43983</v>
       </c>
@@ -2062,7 +2071,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44013</v>
       </c>
@@ -2082,7 +2091,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44044</v>
       </c>
@@ -2102,7 +2111,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44075</v>
       </c>
@@ -2122,7 +2131,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44105</v>
       </c>
@@ -2142,7 +2151,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44136</v>
       </c>
@@ -2162,7 +2171,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44166</v>
       </c>
@@ -2186,7 +2195,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +2213,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44197</v>
       </c>
@@ -2224,7 +2233,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44228</v>
       </c>
@@ -2244,7 +2253,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44256</v>
       </c>
@@ -2264,7 +2273,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44287</v>
       </c>
@@ -2284,7 +2293,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44317</v>
       </c>
@@ -2304,7 +2313,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44348</v>
       </c>
@@ -2324,7 +2333,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44378</v>
       </c>
@@ -2344,7 +2353,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44409</v>
       </c>
@@ -2364,7 +2373,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44440</v>
       </c>
@@ -2384,7 +2393,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44470</v>
       </c>
@@ -2404,7 +2413,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44501</v>
       </c>
@@ -2424,7 +2433,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44531</v>
       </c>
@@ -2448,7 +2457,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>48</v>
       </c>
@@ -2466,7 +2475,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44562</v>
       </c>
@@ -2486,7 +2495,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44593</v>
       </c>
@@ -2506,7 +2515,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44621</v>
       </c>
@@ -2526,7 +2535,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44652</v>
       </c>
@@ -2546,7 +2555,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44682</v>
       </c>
@@ -2566,7 +2575,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44713</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44743</v>
       </c>
@@ -2612,7 +2621,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44774</v>
       </c>
@@ -2632,7 +2641,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44805</v>
       </c>
@@ -2652,7 +2661,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44835</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44866</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44896</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>55</v>
       </c>
@@ -2748,7 +2757,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>56</v>
@@ -2820,7 +2829,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -2868,29 +2877,33 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -2902,9 +2915,11 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -2922,7 +2937,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -2940,7 +2955,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -2958,7 +2973,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -2976,7 +2991,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -2994,7 +3009,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -3012,7 +3027,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
@@ -3030,7 +3045,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45292</v>
       </c>
@@ -3048,7 +3063,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45323</v>
       </c>
@@ -3066,7 +3081,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45352</v>
       </c>
@@ -3084,7 +3099,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45383</v>
       </c>
@@ -3102,7 +3117,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45413</v>
       </c>
@@ -3120,7 +3135,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45444</v>
       </c>
@@ -3138,7 +3153,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45474</v>
       </c>
@@ -3156,7 +3171,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45505</v>
       </c>
@@ -3174,7 +3189,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45536</v>
       </c>
@@ -3192,7 +3207,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45566</v>
       </c>
@@ -3210,7 +3225,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45597</v>
       </c>
@@ -3228,7 +3243,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45627</v>
       </c>
@@ -3246,7 +3261,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45658</v>
       </c>
@@ -3264,7 +3279,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45689</v>
       </c>
@@ -3282,7 +3297,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45717</v>
       </c>
@@ -3300,7 +3315,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45748</v>
       </c>
@@ -3318,7 +3333,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45778</v>
       </c>
@@ -3336,7 +3351,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45809</v>
       </c>
@@ -3354,7 +3369,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45839</v>
       </c>
@@ -3372,7 +3387,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45870</v>
       </c>
@@ -3390,7 +3405,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45901</v>
       </c>
@@ -3408,7 +3423,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45931</v>
       </c>
@@ -3426,7 +3441,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45962</v>
       </c>
@@ -3444,7 +3459,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45992</v>
       </c>
@@ -3462,7 +3477,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46023</v>
       </c>
@@ -3480,7 +3495,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46054</v>
       </c>
@@ -3498,7 +3513,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46082</v>
       </c>
@@ -3516,7 +3531,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46113</v>
       </c>
@@ -3534,7 +3549,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46143</v>
       </c>
@@ -3552,7 +3567,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46174</v>
       </c>
@@ -3570,7 +3585,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46204</v>
       </c>
@@ -3588,7 +3603,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46235</v>
       </c>
@@ -3606,7 +3621,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46266</v>
       </c>
@@ -3624,7 +3639,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46296</v>
       </c>
@@ -3642,7 +3657,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46327</v>
       </c>
@@ -3660,7 +3675,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46357</v>
       </c>
@@ -3678,7 +3693,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46388</v>
       </c>
@@ -3696,7 +3711,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46419</v>
       </c>
@@ -3714,7 +3729,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46447</v>
       </c>
@@ -3732,7 +3747,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46478</v>
       </c>
@@ -3750,7 +3765,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46508</v>
       </c>
@@ -3768,7 +3783,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46539</v>
       </c>
@@ -3786,7 +3801,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46569</v>
       </c>
@@ -3804,7 +3819,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46600</v>
       </c>
@@ -3822,7 +3837,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46631</v>
       </c>
@@ -3855,10 +3870,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3881,28 +3896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +3930,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3964,17 +3979,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3995,7 +4010,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4022,7 +4037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4048,7 +4063,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4074,7 +4089,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4100,7 +4115,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4126,7 +4141,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4178,7 +4193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4204,7 +4219,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4224,7 +4239,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4264,7 +4279,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4327,7 +4342,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4369,7 +4384,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4390,7 +4405,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4411,7 +4426,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4432,7 +4447,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4453,7 +4468,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4474,7 +4489,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4495,7 +4510,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4537,7 +4552,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4558,7 +4573,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4579,7 +4594,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4621,7 +4636,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4642,7 +4657,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4663,7 +4678,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4693,7 +4708,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4702,7 +4717,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4711,7 +4726,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4720,7 +4735,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4729,7 +4744,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4738,7 +4753,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4747,7 +4762,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4756,7 +4771,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4765,7 +4780,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4774,7 +4789,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4783,7 +4798,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4792,7 +4807,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4801,7 +4816,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4810,7 +4825,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4819,7 +4834,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4828,7 +4843,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4837,7 +4852,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4846,7 +4861,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4855,7 +4870,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4864,7 +4879,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4873,7 +4888,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4882,7 +4897,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4891,7 +4906,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4900,7 +4915,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4909,7 +4924,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4918,7 +4933,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4927,7 +4942,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4936,7 +4951,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4945,7 +4960,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>5/12,13/2023</t>
+  </si>
+  <si>
+    <t>6/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1254,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1427,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.5</v>
+        <v>54.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2923,7 +2926,9 @@
       <c r="A82" s="40">
         <v>45078</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -2932,10 +2937,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">

--- a/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF816AE1-9484-43F8-9A99-29641CEB303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -230,11 +231,14 @@
   <si>
     <t>6/19,20/2023</t>
   </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -903,7 +907,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -920,25 +924,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,34 +1249,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1297,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1335,7 +1339,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1343,7 +1347,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1356,7 +1360,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1373,7 +1377,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1417,7 +1421,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.5</v>
+        <v>59</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1427,12 +1431,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.5</v>
+        <v>57</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1454,7 +1458,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1470,7 +1474,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1490,7 +1494,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1510,7 +1514,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1530,7 +1534,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1550,7 +1554,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1570,7 +1574,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1590,7 +1594,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1610,7 +1614,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1630,7 +1634,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1650,7 +1654,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1670,7 +1674,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1694,7 +1698,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -1712,7 +1716,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1732,7 +1736,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1752,7 +1756,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1772,7 +1776,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43678</v>
       </c>
@@ -1852,7 +1856,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43709</v>
       </c>
@@ -1872,7 +1876,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43739</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43770</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43800</v>
       </c>
@@ -1936,7 +1940,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43831</v>
       </c>
@@ -1974,7 +1978,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43862</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -2014,7 +2018,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43922</v>
       </c>
@@ -2034,7 +2038,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43952</v>
       </c>
@@ -2054,7 +2058,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43983</v>
       </c>
@@ -2074,7 +2078,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44013</v>
       </c>
@@ -2094,7 +2098,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44044</v>
       </c>
@@ -2114,7 +2118,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44075</v>
       </c>
@@ -2134,7 +2138,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44105</v>
       </c>
@@ -2154,7 +2158,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44136</v>
       </c>
@@ -2174,7 +2178,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44166</v>
       </c>
@@ -2198,7 +2202,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>47</v>
       </c>
@@ -2216,7 +2220,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44197</v>
       </c>
@@ -2236,7 +2240,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44228</v>
       </c>
@@ -2256,7 +2260,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44256</v>
       </c>
@@ -2276,7 +2280,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44287</v>
       </c>
@@ -2296,7 +2300,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44317</v>
       </c>
@@ -2316,7 +2320,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44348</v>
       </c>
@@ -2336,7 +2340,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44378</v>
       </c>
@@ -2356,7 +2360,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44409</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44440</v>
       </c>
@@ -2396,7 +2400,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44470</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44501</v>
       </c>
@@ -2436,7 +2440,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44531</v>
       </c>
@@ -2460,7 +2464,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2482,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44562</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44593</v>
       </c>
@@ -2518,7 +2522,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44621</v>
       </c>
@@ -2538,7 +2542,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44652</v>
       </c>
@@ -2558,7 +2562,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44682</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44713</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44743</v>
       </c>
@@ -2624,7 +2628,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44774</v>
       </c>
@@ -2644,7 +2648,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44805</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44835</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44866</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44896</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>55</v>
       </c>
@@ -2760,7 +2764,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>56</v>
@@ -2832,7 +2836,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -2880,7 +2884,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -2900,20 +2904,22 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -2922,20 +2928,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
         <v>2</v>
@@ -2946,7 +2954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -2964,7 +2972,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -2982,7 +2990,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -3000,7 +3008,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -3018,7 +3026,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -3036,7 +3044,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
@@ -3054,7 +3062,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45292</v>
       </c>
@@ -3072,7 +3080,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45323</v>
       </c>
@@ -3090,7 +3098,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45352</v>
       </c>
@@ -3108,7 +3116,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45383</v>
       </c>
@@ -3126,7 +3134,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45413</v>
       </c>
@@ -3144,7 +3152,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45444</v>
       </c>
@@ -3162,7 +3170,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45474</v>
       </c>
@@ -3180,7 +3188,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45505</v>
       </c>
@@ -3198,7 +3206,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45536</v>
       </c>
@@ -3216,7 +3224,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45566</v>
       </c>
@@ -3234,7 +3242,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45597</v>
       </c>
@@ -3252,7 +3260,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45627</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45658</v>
       </c>
@@ -3288,7 +3296,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45689</v>
       </c>
@@ -3306,7 +3314,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45717</v>
       </c>
@@ -3324,7 +3332,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45748</v>
       </c>
@@ -3342,7 +3350,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45778</v>
       </c>
@@ -3360,7 +3368,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45809</v>
       </c>
@@ -3378,7 +3386,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45839</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45870</v>
       </c>
@@ -3414,7 +3422,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45901</v>
       </c>
@@ -3432,7 +3440,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45931</v>
       </c>
@@ -3450,7 +3458,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45962</v>
       </c>
@@ -3468,7 +3476,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45992</v>
       </c>
@@ -3486,7 +3494,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>46023</v>
       </c>
@@ -3504,7 +3512,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>46054</v>
       </c>
@@ -3522,7 +3530,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>46082</v>
       </c>
@@ -3540,7 +3548,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>46113</v>
       </c>
@@ -3558,7 +3566,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46143</v>
       </c>
@@ -3576,7 +3584,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46174</v>
       </c>
@@ -3594,7 +3602,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46204</v>
       </c>
@@ -3612,7 +3620,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46235</v>
       </c>
@@ -3630,7 +3638,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46266</v>
       </c>
@@ -3648,7 +3656,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46296</v>
       </c>
@@ -3666,7 +3674,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46327</v>
       </c>
@@ -3684,7 +3692,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46357</v>
       </c>
@@ -3702,7 +3710,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46388</v>
       </c>
@@ -3720,7 +3728,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46419</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46447</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46478</v>
       </c>
@@ -3774,7 +3782,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46508</v>
       </c>
@@ -3792,7 +3800,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46539</v>
       </c>
@@ -3810,7 +3818,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46569</v>
       </c>
@@ -3828,7 +3836,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46600</v>
       </c>
@@ -3846,7 +3854,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46631</v>
       </c>
@@ -3879,10 +3887,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3905,28 +3913,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3939,7 +3947,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3988,17 +3996,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4019,7 +4030,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>116</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4046,7 +4061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4072,7 +4087,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4124,7 +4139,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4176,7 +4191,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4202,7 +4217,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4228,7 +4243,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4248,7 +4263,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4268,7 +4283,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4288,7 +4303,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4309,7 +4324,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4330,7 +4345,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4351,7 +4366,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4372,7 +4387,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4393,7 +4408,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4414,7 +4429,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4435,7 +4450,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4456,7 +4471,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4477,7 +4492,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4498,7 +4513,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4519,7 +4534,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4540,7 +4555,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4561,7 +4576,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4582,7 +4597,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4624,7 +4639,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4666,7 +4681,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4687,7 +4702,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4708,7 +4723,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4717,7 +4732,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4726,7 +4741,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4735,7 +4750,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4744,7 +4759,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4753,7 +4768,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4762,7 +4777,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4771,7 +4786,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4780,7 +4795,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4789,7 +4804,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4798,7 +4813,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4807,7 +4822,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4816,7 +4831,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4825,7 +4840,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4834,7 +4849,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4843,7 +4858,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4852,7 +4867,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4861,7 +4876,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4870,7 +4885,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4879,7 +4894,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4888,7 +4903,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4897,7 +4912,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4906,7 +4921,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4915,7 +4930,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4924,7 +4939,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4933,7 +4948,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4942,7 +4957,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4951,7 +4966,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4960,7 +4975,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4969,7 +4984,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF816AE1-9484-43F8-9A99-29641CEB303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -907,7 +906,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -924,25 +923,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1249,34 +1248,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3990" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9:I9"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1296,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1316,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1338,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1347,7 +1346,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1360,7 +1359,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1377,7 +1376,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1431,12 +1430,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1458,7 +1457,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1474,7 +1473,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1494,7 +1493,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1534,7 +1533,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1554,7 +1553,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1574,7 +1573,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1594,7 +1593,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1614,7 +1613,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1654,7 +1653,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1674,7 +1673,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -1716,7 +1715,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1736,7 +1735,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1756,7 +1755,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1776,7 +1775,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1796,7 +1795,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1816,7 +1815,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1836,7 +1835,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43678</v>
       </c>
@@ -1856,7 +1855,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43709</v>
       </c>
@@ -1876,7 +1875,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43739</v>
       </c>
@@ -1896,7 +1895,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43770</v>
       </c>
@@ -1916,7 +1915,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43800</v>
       </c>
@@ -1940,7 +1939,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>46</v>
       </c>
@@ -1958,7 +1957,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43831</v>
       </c>
@@ -1978,7 +1977,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43862</v>
       </c>
@@ -1998,7 +1997,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -2018,7 +2017,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43922</v>
       </c>
@@ -2038,7 +2037,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43952</v>
       </c>
@@ -2058,7 +2057,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43983</v>
       </c>
@@ -2078,7 +2077,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44013</v>
       </c>
@@ -2098,7 +2097,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44044</v>
       </c>
@@ -2118,7 +2117,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44075</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44105</v>
       </c>
@@ -2158,7 +2157,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44136</v>
       </c>
@@ -2178,7 +2177,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44166</v>
       </c>
@@ -2202,7 +2201,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>47</v>
       </c>
@@ -2220,7 +2219,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44197</v>
       </c>
@@ -2240,7 +2239,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44228</v>
       </c>
@@ -2260,7 +2259,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44256</v>
       </c>
@@ -2280,7 +2279,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44287</v>
       </c>
@@ -2300,7 +2299,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44317</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44348</v>
       </c>
@@ -2340,7 +2339,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44378</v>
       </c>
@@ -2360,7 +2359,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44409</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44440</v>
       </c>
@@ -2400,7 +2399,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44470</v>
       </c>
@@ -2420,7 +2419,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44501</v>
       </c>
@@ -2440,7 +2439,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44531</v>
       </c>
@@ -2464,7 +2463,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>48</v>
       </c>
@@ -2482,7 +2481,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44562</v>
       </c>
@@ -2502,7 +2501,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44593</v>
       </c>
@@ -2522,7 +2521,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44621</v>
       </c>
@@ -2542,7 +2541,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44652</v>
       </c>
@@ -2562,7 +2561,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44682</v>
       </c>
@@ -2582,7 +2581,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44713</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44743</v>
       </c>
@@ -2628,7 +2627,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44774</v>
       </c>
@@ -2648,7 +2647,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44805</v>
       </c>
@@ -2668,7 +2667,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44835</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44866</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44896</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>55</v>
       </c>
@@ -2764,7 +2763,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>56</v>
@@ -2836,7 +2835,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -2884,7 +2883,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -2904,7 +2903,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -2954,11 +2953,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -2967,12 +2968,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="49">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -2990,7 +2995,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -3008,7 +3013,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -3044,7 +3049,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
@@ -3062,7 +3067,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45292</v>
       </c>
@@ -3080,7 +3085,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45323</v>
       </c>
@@ -3098,7 +3103,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45352</v>
       </c>
@@ -3116,7 +3121,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45383</v>
       </c>
@@ -3134,7 +3139,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45413</v>
       </c>
@@ -3152,7 +3157,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45444</v>
       </c>
@@ -3170,7 +3175,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45474</v>
       </c>
@@ -3188,7 +3193,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45505</v>
       </c>
@@ -3206,7 +3211,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45536</v>
       </c>
@@ -3224,7 +3229,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45566</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45597</v>
       </c>
@@ -3260,7 +3265,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45627</v>
       </c>
@@ -3278,7 +3283,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45658</v>
       </c>
@@ -3296,7 +3301,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45689</v>
       </c>
@@ -3314,7 +3319,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45717</v>
       </c>
@@ -3332,7 +3337,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45748</v>
       </c>
@@ -3350,7 +3355,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45778</v>
       </c>
@@ -3368,7 +3373,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45809</v>
       </c>
@@ -3386,7 +3391,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45839</v>
       </c>
@@ -3404,7 +3409,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45870</v>
       </c>
@@ -3422,7 +3427,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45901</v>
       </c>
@@ -3440,7 +3445,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45931</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45962</v>
       </c>
@@ -3476,7 +3481,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45992</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46023</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46054</v>
       </c>
@@ -3530,7 +3535,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46082</v>
       </c>
@@ -3548,7 +3553,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46113</v>
       </c>
@@ -3566,7 +3571,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46143</v>
       </c>
@@ -3584,7 +3589,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46174</v>
       </c>
@@ -3602,7 +3607,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46204</v>
       </c>
@@ -3620,7 +3625,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46235</v>
       </c>
@@ -3638,7 +3643,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46266</v>
       </c>
@@ -3656,7 +3661,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46296</v>
       </c>
@@ -3674,7 +3679,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46327</v>
       </c>
@@ -3692,7 +3697,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46357</v>
       </c>
@@ -3710,7 +3715,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46388</v>
       </c>
@@ -3728,7 +3733,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46419</v>
       </c>
@@ -3746,7 +3751,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46447</v>
       </c>
@@ -3764,7 +3769,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46478</v>
       </c>
@@ -3782,7 +3787,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46508</v>
       </c>
@@ -3800,7 +3805,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46539</v>
       </c>
@@ -3818,7 +3823,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46569</v>
       </c>
@@ -3836,7 +3841,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46600</v>
       </c>
@@ -3854,7 +3859,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46631</v>
       </c>
@@ -3887,10 +3892,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3913,28 +3918,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3947,7 +3952,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3996,17 +4001,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -4030,10 +4035,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4061,7 +4066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4387,7 +4392,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4429,7 +4434,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4660,7 +4665,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4723,7 +4728,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4732,7 +4737,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4741,7 +4746,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4750,7 +4755,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4759,7 +4764,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4768,7 +4773,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4777,7 +4782,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4786,7 +4791,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4795,7 +4800,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4804,7 +4809,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4813,7 +4818,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4822,7 +4827,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4831,7 +4836,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4840,7 +4845,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4849,7 +4854,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4858,7 +4863,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4876,7 +4881,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4894,7 +4899,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4903,7 +4908,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4912,7 +4917,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4921,7 +4926,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4930,7 +4935,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4939,7 +4944,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4948,7 +4953,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4957,7 +4962,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4966,7 +4971,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4975,7 +4980,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4984,7 +4989,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO ALMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8972B-7B80-43D6-A08B-F70CEAEB36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -159,9 +160,6 @@
   </si>
   <si>
     <t>SL EARNED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE OCAMPO ALMA </t>
   </si>
   <si>
     <t>2018</t>
@@ -266,11 +264,23 @@
   <si>
     <t>UT(0-1-44)</t>
   </si>
+  <si>
+    <t>DE OCAMPO ALMA AMBAT</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -939,7 +949,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -956,25 +966,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1281,39 +1291,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A76" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <pane ySplit="3984" topLeftCell="A88" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1329,11 +1339,13 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1349,19 +1361,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1371,7 +1383,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1379,7 +1391,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1392,7 +1404,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1409,7 +1421,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1453,7 +1465,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.989000000000004</v>
+        <v>58.489000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1463,14 +1475,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.75</v>
+        <v>58.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1490,7 +1502,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1506,7 +1518,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1526,7 +1538,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1566,7 +1578,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1586,7 +1598,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1606,7 +1618,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1626,7 +1638,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1666,7 +1678,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1706,12 +1718,12 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -1730,9 +1742,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1748,7 +1760,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1768,7 +1780,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1788,7 +1800,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1808,7 +1820,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1828,7 +1840,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1848,7 +1860,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1868,7 +1880,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43678</v>
       </c>
@@ -1888,7 +1900,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43709</v>
       </c>
@@ -1908,7 +1920,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43739</v>
       </c>
@@ -1928,7 +1940,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43770</v>
       </c>
@@ -1948,12 +1960,12 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43800</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -1972,9 +1984,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1990,7 +2002,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43831</v>
       </c>
@@ -2010,7 +2022,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43862</v>
       </c>
@@ -2030,7 +2042,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -2050,7 +2062,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43922</v>
       </c>
@@ -2070,7 +2082,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43952</v>
       </c>
@@ -2090,7 +2102,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43983</v>
       </c>
@@ -2110,7 +2122,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44013</v>
       </c>
@@ -2130,7 +2142,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44044</v>
       </c>
@@ -2150,7 +2162,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44075</v>
       </c>
@@ -2170,7 +2182,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44105</v>
       </c>
@@ -2190,7 +2202,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44136</v>
       </c>
@@ -2210,12 +2222,12 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44166</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -2234,9 +2246,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2252,7 +2264,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44197</v>
       </c>
@@ -2272,7 +2284,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44228</v>
       </c>
@@ -2292,7 +2304,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44256</v>
       </c>
@@ -2312,7 +2324,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44287</v>
       </c>
@@ -2332,7 +2344,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44317</v>
       </c>
@@ -2352,7 +2364,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44348</v>
       </c>
@@ -2372,7 +2384,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44378</v>
       </c>
@@ -2392,7 +2404,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44409</v>
       </c>
@@ -2412,7 +2424,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44440</v>
       </c>
@@ -2432,7 +2444,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44470</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44501</v>
       </c>
@@ -2472,12 +2484,12 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44531</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -2496,9 +2508,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2514,7 +2526,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44562</v>
       </c>
@@ -2534,7 +2546,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44593</v>
       </c>
@@ -2554,7 +2566,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44621</v>
       </c>
@@ -2574,12 +2586,12 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44652</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -2598,12 +2610,12 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44682</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -2622,12 +2634,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44713</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -2645,13 +2657,13 @@
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -2668,12 +2680,12 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -2692,12 +2704,12 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -2716,12 +2728,12 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39">
@@ -2738,12 +2750,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -2764,10 +2776,10 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -2786,10 +2798,10 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -2806,12 +2818,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -2832,10 +2844,10 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -2852,12 +2864,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -2875,13 +2887,13 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
@@ -2898,9 +2910,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2916,12 +2928,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -2942,12 +2954,12 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -2968,10 +2980,10 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2988,12 +3000,12 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44986</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -3014,10 +3026,10 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3036,7 +3048,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45017</v>
       </c>
@@ -3056,12 +3068,12 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45047</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -3077,15 +3089,15 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45078</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -3103,15 +3115,15 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45108</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -3132,10 +3144,10 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3151,10 +3163,10 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45139</v>
       </c>
@@ -3174,7 +3186,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45170</v>
       </c>
@@ -3194,7 +3206,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45200</v>
       </c>
@@ -3214,22 +3226,24 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45231</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39">
         <v>1</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3238,27 +3252,33 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45261</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="B94" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D94" s="39">
+        <v>4</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45292</v>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3274,11 +3294,13 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B96" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -3287,14 +3309,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="49">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3310,9 +3336,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45383</v>
+        <v>45324</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3328,9 +3354,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45413</v>
+        <v>45325</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3346,9 +3372,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45444</v>
+        <v>45326</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3364,9 +3390,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45474</v>
+        <v>45327</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3382,9 +3408,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45505</v>
+        <v>45328</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3400,9 +3426,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45536</v>
+        <v>45329</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3418,9 +3444,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45566</v>
+        <v>45330</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3436,9 +3462,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45597</v>
+        <v>45331</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3454,9 +3480,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45627</v>
+        <v>45332</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3472,9 +3498,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45658</v>
+        <v>45333</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3490,9 +3516,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45689</v>
+        <v>45334</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3508,9 +3534,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45717</v>
+        <v>45335</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3526,9 +3552,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45748</v>
+        <v>45336</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3544,9 +3570,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45778</v>
+        <v>45337</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3562,9 +3588,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45809</v>
+        <v>45338</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3580,9 +3606,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45839</v>
+        <v>45339</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3598,9 +3624,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45870</v>
+        <v>45340</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3616,9 +3642,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45901</v>
+        <v>45341</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3634,9 +3660,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45931</v>
+        <v>45342</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3652,9 +3678,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45962</v>
+        <v>45343</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3670,9 +3696,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45992</v>
+        <v>45344</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3688,9 +3714,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46023</v>
+        <v>45345</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3706,9 +3732,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46054</v>
+        <v>45346</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3724,9 +3750,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46082</v>
+        <v>45347</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3742,9 +3768,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46113</v>
+        <v>45348</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3760,9 +3786,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46143</v>
+        <v>45349</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3778,9 +3804,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46174</v>
+        <v>45350</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3796,9 +3822,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46204</v>
+        <v>45351</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3814,9 +3840,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46235</v>
+        <v>45352</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3832,9 +3858,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46266</v>
+        <v>45353</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3850,9 +3876,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46296</v>
+        <v>45354</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3868,9 +3894,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46327</v>
+        <v>45355</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3886,9 +3912,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46357</v>
+        <v>45356</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3904,9 +3930,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46388</v>
+        <v>45357</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3922,9 +3948,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46419</v>
+        <v>45358</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3940,9 +3966,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46447</v>
+        <v>45359</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3958,9 +3984,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46478</v>
+        <v>45360</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3976,9 +4002,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46508</v>
+        <v>45361</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3994,9 +4020,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46539</v>
+        <v>45362</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4012,9 +4038,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46569</v>
+        <v>45363</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4030,9 +4056,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46600</v>
+        <v>45364</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4048,23 +4074,41 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46631</v>
-      </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+        <v>45365</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>45366</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4081,10 +4125,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4107,28 +4151,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4141,7 +4185,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4170,7 +4214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4192,19 +4236,19 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4226,7 +4270,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>116.739</v>
@@ -4257,7 +4301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4283,7 +4327,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4309,7 +4353,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4335,7 +4379,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4361,7 +4405,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4387,7 +4431,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4413,7 +4457,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4439,7 +4483,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4459,7 +4503,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4479,7 +4523,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4499,7 +4543,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4520,7 +4564,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4541,7 +4585,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4562,7 +4606,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4583,7 +4627,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4604,7 +4648,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4625,7 +4669,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4646,7 +4690,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4667,7 +4711,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4688,7 +4732,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4709,7 +4753,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4730,7 +4774,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4751,7 +4795,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4772,7 +4816,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4793,7 +4837,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4814,7 +4858,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4835,7 +4879,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4856,7 +4900,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4877,7 +4921,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4898,7 +4942,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4919,7 +4963,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4928,7 +4972,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4937,7 +4981,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4946,7 +4990,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4955,7 +4999,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4964,7 +5008,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4973,7 +5017,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4982,7 +5026,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4991,7 +5035,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5000,7 +5044,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5009,7 +5053,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5018,7 +5062,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5027,7 +5071,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5036,7 +5080,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5045,7 +5089,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5054,7 +5098,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5063,7 +5107,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5072,7 +5116,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5081,7 +5125,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5090,7 +5134,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5099,7 +5143,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5108,7 +5152,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5117,7 +5161,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5126,7 +5170,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5135,7 +5179,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5144,7 +5188,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5153,7 +5197,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5162,7 +5206,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5171,7 +5215,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5180,7 +5224,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
